--- a/CR.21718.CCS1153INTL.xlsx
+++ b/CR.21718.CCS1153INTL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="never"/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="7245" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INITIAL INPUT" sheetId="1" r:id="rId1"/>
@@ -743,17 +743,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="###\-###0"/>
-    <numFmt numFmtId="178" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="179" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="180" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="183" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="184" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="89">
+  <fonts count="88">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,6 +1162,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1169,14 +1192,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,6 +1223,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1199,17 +1244,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1220,16 +1265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1254,51 +1291,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1389,7 +1382,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,175 +1556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2512,25 +2505,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2553,23 +2537,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2591,15 +2593,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2611,150 +2604,150 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="20" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="78" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="15" borderId="77" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="81" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="28" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="11" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="84" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="66" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="30" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="31" borderId="82" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="31" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="84" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="68" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="68" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3311,7 +3304,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="38" fillId="0" borderId="16" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="16" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3323,7 +3316,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="38" fillId="0" borderId="17" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="17" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3331,7 +3324,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="38" fillId="0" borderId="18" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="18" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3546,7 +3539,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="48" fillId="0" borderId="16" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="48" fillId="0" borderId="16" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3682,7 +3675,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="48" fillId="0" borderId="8" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="48" fillId="0" borderId="8" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
@@ -3978,11 +3971,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="6" borderId="50" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="22" fillId="6" borderId="50" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="6" borderId="51" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="21" fillId="6" borderId="51" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="37" applyFill="1" applyBorder="1" applyProtection="1">
@@ -3996,15 +3989,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="5" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="22" fillId="5" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="6" borderId="54" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="22" fillId="6" borderId="54" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="6" borderId="55" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="21" fillId="6" borderId="55" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -4016,7 +4009,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="6" borderId="55" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="21" fillId="6" borderId="55" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4149,7 +4142,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="29" fillId="5" borderId="67" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="29" fillId="5" borderId="67" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4157,11 +4150,11 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="64" fillId="2" borderId="49" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="64" fillId="2" borderId="49" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="64" fillId="2" borderId="48" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="64" fillId="2" borderId="48" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4183,11 +4176,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="29" fillId="5" borderId="59" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="29" fillId="5" borderId="59" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="29" fillId="5" borderId="75" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="29" fillId="5" borderId="75" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4268,7 +4261,7 @@
     <cellStyle name="40% - Accent6" xfId="49" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="50" builtinId="52"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="10">
     <dxf>
       <font>
         <color indexed="20"/>
@@ -4303,28 +4296,6 @@
     </dxf>
     <dxf>
       <font>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <color indexed="10"/>
@@ -4344,50 +4315,16 @@
     </dxf>
     <dxf>
       <font>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color indexed="10"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4488,7 +4425,7 @@
                   <a:solidFill>
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
-                  <a:latin typeface="Bell MT"/>
+                  <a:latin typeface="Bell MT" panose="02020503060305020303"/>
                 </a:rPr>
                 <a:t>UNIVERSITY OF THE CORDILLERAS</a:t>
               </a:r>
@@ -4496,7 +4433,7 @@
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
-                <a:latin typeface="Bell MT"/>
+                <a:latin typeface="Bell MT" panose="02020503060305020303"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5913,7 +5850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:R2189"/>
   <sheetViews>
@@ -9051,7 +8988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E99"/>
   <sheetViews>
@@ -9720,7 +9657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Y135"/>
   <sheetViews>
@@ -10086,7 +10023,7 @@
       </c>
       <c r="E9" s="229">
         <f>IF(PRELIM!P9="","",$E$8*PRELIM!P9)</f>
-        <v>21.45</v>
+        <v>15.7384615384615</v>
       </c>
       <c r="F9" s="230">
         <f>IF(PRELIM!AB9="","",$F$8*PRELIM!AB9)</f>
@@ -10098,11 +10035,11 @@
       </c>
       <c r="H9" s="231">
         <f t="shared" ref="H9:H40" si="1">IF(SUM(E9:G9)=0,"",SUM(E9:G9))</f>
-        <v>77.9409090909091</v>
+        <v>72.2293706293706</v>
       </c>
       <c r="I9" s="254">
         <f>IF(H9="","",VLOOKUP(H9,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J9" s="230" t="str">
         <f>IF(MIDTERM!P9="","",$J$8*MIDTERM!P9)</f>
@@ -10177,7 +10114,7 @@
       </c>
       <c r="E10" s="229">
         <f>IF(PRELIM!P10="","",$E$8*PRELIM!P10)</f>
-        <v>17.7375</v>
+        <v>13.4538461538462</v>
       </c>
       <c r="F10" s="230">
         <f>IF(PRELIM!AB10="","",$F$8*PRELIM!AB10)</f>
@@ -10189,11 +10126,11 @@
       </c>
       <c r="H10" s="231">
         <f t="shared" si="1"/>
-        <v>59.5006578947368</v>
+        <v>55.217004048583</v>
       </c>
       <c r="I10" s="254">
         <f>IF(H10="","",VLOOKUP(H10,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J10" s="230" t="str">
         <f>IF(MIDTERM!P10="","",$J$8*MIDTERM!P10)</f>
@@ -10271,7 +10208,7 @@
       </c>
       <c r="E11" s="229">
         <f>IF(PRELIM!P11="","",$E$8*PRELIM!P11)</f>
-        <v>23.925</v>
+        <v>17.2615384615385</v>
       </c>
       <c r="F11" s="230">
         <f>IF(PRELIM!AB11="","",$F$8*PRELIM!AB11)</f>
@@ -10283,11 +10220,11 @@
       </c>
       <c r="H11" s="231">
         <f t="shared" si="1"/>
-        <v>68.5642344497608</v>
+        <v>61.9007729112992</v>
       </c>
       <c r="I11" s="254">
         <f>IF(H11="","",VLOOKUP(H11,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J11" s="230" t="str">
         <f>IF(MIDTERM!P11="","",$J$8*MIDTERM!P11)</f>
@@ -17091,33 +17028,33 @@
       <formula>75</formula>
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="13" stopIfTrue="1" operator="between">
       <formula>70</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V50:V80 V9:V40">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="between">
       <formula>70</formula>
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="between">
       <formula>75</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="notBetween">
       <formula>70</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:W40 W50:W80">
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Not Valid"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17143,12 +17080,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AK135"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17421,7 +17358,9 @@
       <c r="H5" s="84">
         <v>30</v>
       </c>
-      <c r="I5" s="84"/>
+      <c r="I5" s="84">
+        <v>50</v>
+      </c>
       <c r="J5" s="84"/>
       <c r="K5" s="84"/>
       <c r="L5" s="84"/>
@@ -17489,7 +17428,7 @@
       <c r="N6" s="87"/>
       <c r="O6" s="125">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="P6" s="124"/>
       <c r="Q6" s="172" t="s">
@@ -17640,7 +17579,9 @@
       <c r="H9" s="103">
         <v>30</v>
       </c>
-      <c r="I9" s="103"/>
+      <c r="I9" s="103">
+        <v>10</v>
+      </c>
       <c r="J9" s="103"/>
       <c r="K9" s="103"/>
       <c r="L9" s="103"/>
@@ -17648,11 +17589,11 @@
       <c r="N9" s="103"/>
       <c r="O9" s="129">
         <f>IF(SUM(E9:N9)=0,"",SUM(E9:N9))</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P9" s="130">
         <f>IF(O9="","",O9/$O$6*100)</f>
-        <v>65</v>
+        <v>47.6923076923077</v>
       </c>
       <c r="Q9" s="103">
         <v>100</v>
@@ -17689,11 +17630,11 @@
       </c>
       <c r="AE9" s="157">
         <f>CRS!H9</f>
-        <v>77.9409090909091</v>
+        <v>72.2293706293706</v>
       </c>
       <c r="AF9" s="167">
         <f>CRS!I9</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AG9" s="168"/>
       <c r="AH9" s="168"/>
@@ -17729,7 +17670,9 @@
       <c r="H10" s="103">
         <v>30</v>
       </c>
-      <c r="I10" s="103"/>
+      <c r="I10" s="103">
+        <v>10</v>
+      </c>
       <c r="J10" s="103"/>
       <c r="K10" s="103"/>
       <c r="L10" s="103"/>
@@ -17737,11 +17680,11 @@
       <c r="N10" s="103"/>
       <c r="O10" s="129">
         <f t="shared" ref="O10:O40" si="0">IF(SUM(E10:N10)=0,"",SUM(E10:N10))</f>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P10" s="130">
         <f t="shared" ref="P10:P40" si="1">IF(O10="","",O10/$O$6*100)</f>
-        <v>53.75</v>
+        <v>40.7692307692308</v>
       </c>
       <c r="Q10" s="103">
         <v>33</v>
@@ -17778,11 +17721,11 @@
       </c>
       <c r="AE10" s="157">
         <f>CRS!H10</f>
-        <v>59.5006578947368</v>
+        <v>55.217004048583</v>
       </c>
       <c r="AF10" s="167">
         <f>CRS!I10</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AG10" s="168"/>
       <c r="AH10" s="168"/>
@@ -17818,7 +17761,9 @@
       <c r="H11" s="103">
         <v>30</v>
       </c>
-      <c r="I11" s="103"/>
+      <c r="I11" s="103">
+        <v>10</v>
+      </c>
       <c r="J11" s="103"/>
       <c r="K11" s="103"/>
       <c r="L11" s="103"/>
@@ -17826,11 +17771,11 @@
       <c r="N11" s="103"/>
       <c r="O11" s="129">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="P11" s="130">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>52.3076923076923</v>
       </c>
       <c r="Q11" s="103">
         <v>66</v>
@@ -17865,11 +17810,11 @@
       </c>
       <c r="AE11" s="157">
         <f>CRS!H11</f>
-        <v>68.5642344497608</v>
+        <v>61.9007729112992</v>
       </c>
       <c r="AF11" s="167">
         <f>CRS!I11</f>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
@@ -20187,9 +20132,9 @@
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="I46" s="111" t="str">
+      <c r="I46" s="111">
         <f t="shared" si="6"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="J46" s="111" t="str">
         <f t="shared" si="6"/>
@@ -20318,7 +20263,7 @@
       </c>
       <c r="O47" s="131">
         <f>O6</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="P47" s="122"/>
       <c r="Q47" s="112" t="str">
@@ -22946,35 +22891,29 @@
     <mergeCell ref="AC2:AD3"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="R9:R40 R50:R80">
-      <formula1>$R$5</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="G9:G40 G50:G80">
-      <formula1>$G$5</formula1>
-    </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="E9:E40 E50:E80">
       <formula1>$E$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="F9:F40 F50:F80">
       <formula1>$F$5</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="I9:I40 I50:I80">
-      <formula1>$I$5</formula1>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="G9:G40 G50:G80">
+      <formula1>$G$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="H9:H40 H50:H80">
       <formula1>$H$5</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="W9:W40 W50:W80">
-      <formula1>$W$5</formula1>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="I9:I40 I50:I80">
+      <formula1>$I$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="J9:J40 J50:J80">
       <formula1>$J$5</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="K9:K40 K50:K80">
+      <formula1>$K$5</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="L9:L40 L50:L80">
       <formula1>$L$5</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="K9:K40 K50:K80">
-      <formula1>$K$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="M9:M40 M50:M80">
       <formula1>$M$5</formula1>
@@ -22982,20 +22921,26 @@
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="N9:N40 N50:N80">
       <formula1>$N$5</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="T9:T40 T50:T80">
-      <formula1>$T$5</formula1>
-    </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="Q9:Q40 Q50:Q80">
       <formula1>$Q$5</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="R9:R40 R50:R80">
+      <formula1>$R$5</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="S9:S40 S50:S80">
       <formula1>$S$5</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="T9:T40 T50:T80">
+      <formula1>$T$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="U9:U40 U50:U80">
       <formula1>$U$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="V9:V40 V50:V80">
       <formula1>$V$5</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="W9:W40 W50:W80">
+      <formula1>$W$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="X9:X40 X50:X80">
       <formula1>$X$5</formula1>
@@ -23023,12 +22968,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AL135"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -29016,35 +28961,29 @@
     <mergeCell ref="A7:B8"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="R9:R40 R50:R80">
-      <formula1>$R$5</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="G9:G40 G50:G80">
-      <formula1>$G$5</formula1>
-    </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="E9:E40 E50:E80">
       <formula1>$E$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="F9:F40 F50:F80">
       <formula1>$F$5</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="I9:I40 I50:I80">
-      <formula1>$I$5</formula1>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="G9:G40 G50:G80">
+      <formula1>$G$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="H9:H40 H50:H80">
       <formula1>$H$5</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="W9:W40 W50:W80">
-      <formula1>$W$5</formula1>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="I9:I40 I50:I80">
+      <formula1>$I$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="J9:J40 J50:J80">
       <formula1>$J$5</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="K9:K40 K50:K80">
+      <formula1>$K$5</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="L9:L40 L50:L80">
       <formula1>$L$5</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="K9:K40 K50:K80">
-      <formula1>$K$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="M9:M40 M50:M80">
       <formula1>$M$5</formula1>
@@ -29052,20 +28991,26 @@
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="N9:N40 N50:N80">
       <formula1>$N$5</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="T9:T40 T50:T80">
-      <formula1>$T$5</formula1>
-    </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="Q9:Q40 Q50:Q80">
       <formula1>$Q$5</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="R9:R40 R50:R80">
+      <formula1>$R$5</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="S9:S40 S50:S80">
       <formula1>$S$5</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="T9:T40 T50:T80">
+      <formula1>$T$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="U9:U40 U50:U80">
       <formula1>$U$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="V9:V40 V50:V80">
       <formula1>$V$5</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="W9:W40 W50:W80">
+      <formula1>$W$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="X9:X40 X50:X80">
       <formula1>$X$5</formula1>
@@ -29093,7 +29038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AL135"/>
   <sheetViews>
@@ -35086,35 +35031,29 @@
     <mergeCell ref="AC2:AD3"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="R9:R40 R50:R80">
-      <formula1>$R$5</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="G9:G40 G50:G80">
-      <formula1>$G$5</formula1>
-    </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="E9:E40 E50:E80">
       <formula1>$E$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="F9:F40 F50:F80">
       <formula1>$F$5</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="I9:I40 I50:I80">
-      <formula1>$I$5</formula1>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="G9:G40 G50:G80">
+      <formula1>$G$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="H9:H40 H50:H80">
       <formula1>$H$5</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="W9:W40 W50:W80">
-      <formula1>$W$5</formula1>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="I9:I40 I50:I80">
+      <formula1>$I$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="J9:J40 J50:J80">
       <formula1>$J$5</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="K9:K40 K50:K80">
+      <formula1>$K$5</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="L9:L40 L50:L80">
       <formula1>$L$5</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="K9:K40 K50:K80">
-      <formula1>$K$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="M9:M40 M50:M80">
       <formula1>$M$5</formula1>
@@ -35122,20 +35061,26 @@
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="N9:N40 N50:N80">
       <formula1>$N$5</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="T9:T40 T50:T80">
-      <formula1>$T$5</formula1>
-    </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="Q9:Q40 Q50:Q80">
       <formula1>$Q$5</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="R9:R40 R50:R80">
+      <formula1>$R$5</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="S9:S40 S50:S80">
       <formula1>$S$5</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="T9:T40 T50:T80">
+      <formula1>$T$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="U9:U40 U50:U80">
       <formula1>$U$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="V9:V40 V50:V80">
       <formula1>$V$5</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="W9:W40 W50:W80">
+      <formula1>$W$5</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="X9:X40 X50:X80">
       <formula1>$X$5</formula1>
@@ -35163,7 +35108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:AH135"/>
   <sheetViews>
@@ -35414,7 +35359,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="51">
         <f>IF(CRS!I9="","",CRS!I9)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J15" s="52"/>
       <c r="K15" s="51" t="str">
@@ -35473,7 +35418,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="51">
         <f>IF(CRS!I10="","",CRS!I10)</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J16" s="52"/>
       <c r="K16" s="51" t="str">
@@ -35532,7 +35477,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="51">
         <f>IF(CRS!I11="","",CRS!I11)</f>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J17" s="52"/>
       <c r="K17" s="51" t="str">
@@ -40211,21 +40156,21 @@
     <mergeCell ref="O107:P107"/>
   </mergeCells>
   <conditionalFormatting sqref="M15:M46">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="notBetween">
       <formula>75</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="between">
       <formula>75</formula>
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76:M107">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="notBetween">
       <formula>75</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="between">
       <formula>75</formula>
       <formula>99</formula>
     </cfRule>
@@ -40235,22 +40180,22 @@
       <formula>70</formula>
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="between">
       <formula>70</formula>
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="9" stopIfTrue="1" operator="between">
       <formula>75</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:P46 O76:P107">
-    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76:J107 L76:M107">
-    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="between">
       <formula>70</formula>
       <formula>74</formula>
     </cfRule>

--- a/CR.21718.CCS1153INTL.xlsx
+++ b/CR.21718.CCS1153INTL.xlsx
@@ -743,13 +743,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="###\-###0"/>
-    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="178" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="183" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="184" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
@@ -1162,7 +1162,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,23 +1268,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1213,43 +1289,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1258,48 +1297,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1382,7 +1382,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,7 +1472,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,7 +1496,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,49 +1520,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1472,97 +1550,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2504,45 +2504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2567,11 +2528,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2591,163 +2578,176 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="66" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="12" borderId="78" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="18" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="81" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="78" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="84" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="26" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="24" borderId="82" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="24" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="28" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="11" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="84" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="66" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3304,7 +3304,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="38" fillId="0" borderId="16" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="38" fillId="0" borderId="16" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3316,7 +3316,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="38" fillId="0" borderId="17" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="38" fillId="0" borderId="17" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3324,7 +3324,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="38" fillId="0" borderId="18" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="38" fillId="0" borderId="18" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -4142,7 +4142,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="5" borderId="67" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="29" fillId="5" borderId="67" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4150,11 +4150,11 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="64" fillId="2" borderId="49" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="64" fillId="2" borderId="49" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="64" fillId="2" borderId="48" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="64" fillId="2" borderId="48" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4176,11 +4176,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="5" borderId="59" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="29" fillId="5" borderId="59" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="5" borderId="75" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="29" fillId="5" borderId="75" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="E9" s="229">
         <f>IF(PRELIM!P9="","",$E$8*PRELIM!P9)</f>
-        <v>15.7384615384615</v>
+        <v>21.45</v>
       </c>
       <c r="F9" s="230">
         <f>IF(PRELIM!AB9="","",$F$8*PRELIM!AB9)</f>
@@ -10035,11 +10035,11 @@
       </c>
       <c r="H9" s="231">
         <f t="shared" ref="H9:H40" si="1">IF(SUM(E9:G9)=0,"",SUM(E9:G9))</f>
-        <v>72.2293706293706</v>
+        <v>77.9409090909091</v>
       </c>
       <c r="I9" s="254">
         <f>IF(H9="","",VLOOKUP(H9,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J9" s="230" t="str">
         <f>IF(MIDTERM!P9="","",$J$8*MIDTERM!P9)</f>
@@ -10114,7 +10114,7 @@
       </c>
       <c r="E10" s="229">
         <f>IF(PRELIM!P10="","",$E$8*PRELIM!P10)</f>
-        <v>13.4538461538462</v>
+        <v>17.7375</v>
       </c>
       <c r="F10" s="230">
         <f>IF(PRELIM!AB10="","",$F$8*PRELIM!AB10)</f>
@@ -10126,11 +10126,11 @@
       </c>
       <c r="H10" s="231">
         <f t="shared" si="1"/>
-        <v>55.217004048583</v>
+        <v>59.5006578947368</v>
       </c>
       <c r="I10" s="254">
         <f>IF(H10="","",VLOOKUP(H10,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J10" s="230" t="str">
         <f>IF(MIDTERM!P10="","",$J$8*MIDTERM!P10)</f>
@@ -10208,7 +10208,7 @@
       </c>
       <c r="E11" s="229">
         <f>IF(PRELIM!P11="","",$E$8*PRELIM!P11)</f>
-        <v>17.2615384615385</v>
+        <v>23.925</v>
       </c>
       <c r="F11" s="230">
         <f>IF(PRELIM!AB11="","",$F$8*PRELIM!AB11)</f>
@@ -10220,11 +10220,11 @@
       </c>
       <c r="H11" s="231">
         <f t="shared" si="1"/>
-        <v>61.9007729112992</v>
+        <v>68.5642344497607</v>
       </c>
       <c r="I11" s="254">
         <f>IF(H11="","",VLOOKUP(H11,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J11" s="230" t="str">
         <f>IF(MIDTERM!P11="","",$J$8*MIDTERM!P11)</f>
@@ -17085,7 +17085,7 @@
   <dimension ref="A1:AK135"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17358,9 +17358,7 @@
       <c r="H5" s="84">
         <v>30</v>
       </c>
-      <c r="I5" s="84">
-        <v>50</v>
-      </c>
+      <c r="I5" s="84"/>
       <c r="J5" s="84"/>
       <c r="K5" s="84"/>
       <c r="L5" s="84"/>
@@ -17428,7 +17426,7 @@
       <c r="N6" s="87"/>
       <c r="O6" s="125">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="P6" s="124"/>
       <c r="Q6" s="172" t="s">
@@ -17579,9 +17577,7 @@
       <c r="H9" s="103">
         <v>30</v>
       </c>
-      <c r="I9" s="103">
-        <v>10</v>
-      </c>
+      <c r="I9" s="103"/>
       <c r="J9" s="103"/>
       <c r="K9" s="103"/>
       <c r="L9" s="103"/>
@@ -17589,11 +17585,11 @@
       <c r="N9" s="103"/>
       <c r="O9" s="129">
         <f>IF(SUM(E9:N9)=0,"",SUM(E9:N9))</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P9" s="130">
         <f>IF(O9="","",O9/$O$6*100)</f>
-        <v>47.6923076923077</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="103">
         <v>100</v>
@@ -17630,11 +17626,11 @@
       </c>
       <c r="AE9" s="157">
         <f>CRS!H9</f>
-        <v>72.2293706293706</v>
+        <v>77.9409090909091</v>
       </c>
       <c r="AF9" s="167">
         <f>CRS!I9</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AG9" s="168"/>
       <c r="AH9" s="168"/>
@@ -17670,9 +17666,7 @@
       <c r="H10" s="103">
         <v>30</v>
       </c>
-      <c r="I10" s="103">
-        <v>10</v>
-      </c>
+      <c r="I10" s="103"/>
       <c r="J10" s="103"/>
       <c r="K10" s="103"/>
       <c r="L10" s="103"/>
@@ -17680,11 +17674,11 @@
       <c r="N10" s="103"/>
       <c r="O10" s="129">
         <f t="shared" ref="O10:O40" si="0">IF(SUM(E10:N10)=0,"",SUM(E10:N10))</f>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="P10" s="130">
         <f t="shared" ref="P10:P40" si="1">IF(O10="","",O10/$O$6*100)</f>
-        <v>40.7692307692308</v>
+        <v>53.75</v>
       </c>
       <c r="Q10" s="103">
         <v>33</v>
@@ -17721,11 +17715,11 @@
       </c>
       <c r="AE10" s="157">
         <f>CRS!H10</f>
-        <v>55.217004048583</v>
+        <v>59.5006578947368</v>
       </c>
       <c r="AF10" s="167">
         <f>CRS!I10</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AG10" s="168"/>
       <c r="AH10" s="168"/>
@@ -17761,9 +17755,7 @@
       <c r="H11" s="103">
         <v>30</v>
       </c>
-      <c r="I11" s="103">
-        <v>10</v>
-      </c>
+      <c r="I11" s="103"/>
       <c r="J11" s="103"/>
       <c r="K11" s="103"/>
       <c r="L11" s="103"/>
@@ -17771,11 +17763,11 @@
       <c r="N11" s="103"/>
       <c r="O11" s="129">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="P11" s="130">
         <f t="shared" si="1"/>
-        <v>52.3076923076923</v>
+        <v>72.5</v>
       </c>
       <c r="Q11" s="103">
         <v>66</v>
@@ -17810,11 +17802,11 @@
       </c>
       <c r="AE11" s="157">
         <f>CRS!H11</f>
-        <v>61.9007729112992</v>
+        <v>68.5642344497607</v>
       </c>
       <c r="AF11" s="167">
         <f>CRS!I11</f>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
@@ -20132,9 +20124,9 @@
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="I46" s="111">
+      <c r="I46" s="111" t="str">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v/>
       </c>
       <c r="J46" s="111" t="str">
         <f t="shared" si="6"/>
@@ -20263,7 +20255,7 @@
       </c>
       <c r="O47" s="131">
         <f>O6</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="P47" s="122"/>
       <c r="Q47" s="112" t="str">
@@ -35359,7 +35351,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="51">
         <f>IF(CRS!I9="","",CRS!I9)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J15" s="52"/>
       <c r="K15" s="51" t="str">
@@ -35418,7 +35410,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="51">
         <f>IF(CRS!I10="","",CRS!I10)</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J16" s="52"/>
       <c r="K16" s="51" t="str">
@@ -35477,7 +35469,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="51">
         <f>IF(CRS!I11="","",CRS!I11)</f>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J17" s="52"/>
       <c r="K17" s="51" t="str">
